--- a/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/1 CAJA Y BANCOS/5 ARQUEO DE CAJA.xlsx
+++ b/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/1 CAJA Y BANCOS/5 ARQUEO DE CAJA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toño\Desktop\AUDITORIA FINANCIERA ENVIAR\5 PRUEBAS SUSTANTIVAS\1 CAJA Y BANCOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\1 CAJA Y BANCOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A84C7E-447C-4E07-B41F-7A14D1D8A987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12810" windowHeight="6405"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ARQUEO DE CAJA" sheetId="1" r:id="rId1"/>
@@ -23,22 +24,31 @@
     <definedName name="MESES">#REF!</definedName>
     <definedName name="mesesitos">[1]CONSULTA!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>USER</author>
   </authors>
   <commentList>
-    <comment ref="J17" authorId="0" shapeId="0">
+    <comment ref="J17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -52,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E22" authorId="0" shapeId="0">
+    <comment ref="E22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -66,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I22" authorId="0" shapeId="0">
+    <comment ref="I22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -85,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>1.-</t>
   </si>
@@ -280,19 +290,22 @@
     <t>A-5</t>
   </si>
   <si>
-    <t xml:space="preserve">                Entidad XXXXXXXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Auditoria de Estados Financieros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          Del 01 de Enero al 31 de Diciembre de 2024</t>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>Auditoria de Estados Financieros</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
+  </si>
+  <si>
+    <t>Entidad XXXXXXX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
@@ -845,10 +858,102 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -870,106 +975,16 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
-    <cellStyle name="Hipervínculo 3" xfId="2"/>
+    <cellStyle name="Hipervínculo 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1272,12 +1287,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja11"/>
   <dimension ref="A2:L77"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1301,60 +1316,67 @@
       <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="74"/>
+      <c r="D3" s="112" t="s">
+        <v>54</v>
+      </c>
       <c r="E3" s="31"/>
-      <c r="F3" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="73"/>
+      <c r="F3" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
       <c r="L3" s="72" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E4" s="31"/>
-      <c r="F4" s="73" t="s">
+      <c r="E4" s="113" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="73"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C7" s="106" t="s">
+      <c r="C7" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
     </row>
     <row r="8" spans="1:12" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="39"/>
       <c r="B9" s="39"/>
-      <c r="C9" s="104" t="s">
+      <c r="C9" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H10" s="1"/>
@@ -1366,11 +1388,11 @@
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="108">
+      <c r="F11" s="77">
         <f ca="1">+TODAY()</f>
-        <v>45716</v>
-      </c>
-      <c r="G11" s="109"/>
+        <v>45882</v>
+      </c>
+      <c r="G11" s="78"/>
       <c r="I11" s="18" t="s">
         <v>47</v>
       </c>
@@ -1382,30 +1404,30 @@
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="110">
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="79">
         <v>0.79166666666666663</v>
       </c>
-      <c r="G12" s="111"/>
+      <c r="G12" s="80"/>
       <c r="H12" s="3"/>
       <c r="I12" s="19"/>
       <c r="J12" s="11"/>
       <c r="K12" s="47"/>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="112">
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="81">
         <v>0.80208333333333337</v>
       </c>
-      <c r="G13" s="113"/>
+      <c r="G13" s="82"/>
       <c r="H13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="36"/>
@@ -1502,17 +1524,17 @@
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="75" t="s">
+      <c r="D21" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="76"/>
-      <c r="F21" s="77"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="107"/>
       <c r="G21" s="14"/>
-      <c r="H21" s="87" t="s">
+      <c r="H21" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="88"/>
-      <c r="J21" s="89"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="88"/>
       <c r="K21" s="51"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1669,18 +1691,18 @@
     </row>
     <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6"/>
-      <c r="D29" s="85" t="s">
+      <c r="D29" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="86"/>
+      <c r="E29" s="104"/>
       <c r="F29" s="38">
         <f>+SUM(F23:F28)</f>
         <v>1215.4000000000001</v>
       </c>
-      <c r="H29" s="85" t="s">
+      <c r="H29" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="I29" s="86"/>
+      <c r="I29" s="104"/>
       <c r="J29" s="38">
         <f>+SUM(J23:J27)</f>
         <v>2300</v>
@@ -1714,33 +1736,33 @@
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B33" s="8"/>
       <c r="C33" s="6"/>
-      <c r="D33" s="75" t="s">
+      <c r="D33" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="76"/>
-      <c r="F33" s="77"/>
+      <c r="E33" s="106"/>
+      <c r="F33" s="107"/>
       <c r="G33" s="13"/>
-      <c r="H33" s="75" t="s">
+      <c r="H33" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="I33" s="76"/>
-      <c r="J33" s="76"/>
+      <c r="I33" s="106"/>
+      <c r="J33" s="106"/>
       <c r="K33" s="51"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
-      <c r="D34" s="90" t="s">
+      <c r="D34" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="91"/>
+      <c r="E34" s="101"/>
       <c r="F34" s="59">
         <v>1000</v>
       </c>
       <c r="G34" s="7"/>
-      <c r="H34" s="90" t="s">
+      <c r="H34" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="I34" s="91"/>
+      <c r="I34" s="101"/>
       <c r="J34" s="59">
         <v>500</v>
       </c>
@@ -1748,18 +1770,18 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
-      <c r="D35" s="90" t="s">
+      <c r="D35" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="91"/>
+      <c r="E35" s="101"/>
       <c r="F35" s="59">
         <v>2000</v>
       </c>
       <c r="G35" s="7"/>
-      <c r="H35" s="90" t="s">
+      <c r="H35" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="I35" s="91"/>
+      <c r="I35" s="101"/>
       <c r="J35" s="59">
         <v>700</v>
       </c>
@@ -1767,52 +1789,52 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B36" s="6"/>
-      <c r="D36" s="90"/>
-      <c r="E36" s="91"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="101"/>
       <c r="F36" s="67"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="90"/>
-      <c r="I36" s="91"/>
+      <c r="H36" s="100"/>
+      <c r="I36" s="101"/>
       <c r="J36" s="67"/>
       <c r="K36" s="50"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B37" s="6"/>
-      <c r="D37" s="90"/>
-      <c r="E37" s="91"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="101"/>
       <c r="F37" s="67"/>
       <c r="G37" s="7"/>
-      <c r="H37" s="90"/>
-      <c r="I37" s="91"/>
+      <c r="H37" s="100"/>
+      <c r="I37" s="101"/>
       <c r="J37" s="67"/>
       <c r="K37" s="50"/>
     </row>
     <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="6"/>
-      <c r="D38" s="90"/>
-      <c r="E38" s="91"/>
+      <c r="D38" s="100"/>
+      <c r="E38" s="101"/>
       <c r="F38" s="68"/>
       <c r="G38" s="7"/>
-      <c r="H38" s="90"/>
-      <c r="I38" s="91"/>
+      <c r="H38" s="100"/>
+      <c r="I38" s="101"/>
       <c r="J38" s="68"/>
       <c r="K38" s="50"/>
     </row>
     <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="6"/>
-      <c r="D39" s="85" t="s">
+      <c r="D39" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="E39" s="86"/>
+      <c r="E39" s="104"/>
       <c r="F39" s="38">
         <f>+SUM(F34:F38)</f>
         <v>3000</v>
       </c>
       <c r="G39" s="7"/>
-      <c r="H39" s="85" t="s">
+      <c r="H39" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="I39" s="86"/>
+      <c r="I39" s="104"/>
       <c r="J39" s="38">
         <f>+SUM(J33:J38)</f>
         <v>1200</v>
@@ -1853,52 +1875,52 @@
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B43" s="8"/>
       <c r="C43" s="6"/>
-      <c r="D43" s="75" t="s">
+      <c r="D43" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="76"/>
-      <c r="F43" s="77"/>
+      <c r="E43" s="106"/>
+      <c r="F43" s="107"/>
       <c r="G43" s="13"/>
-      <c r="H43" s="75" t="s">
+      <c r="H43" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="I43" s="76"/>
-      <c r="J43" s="77"/>
+      <c r="I43" s="106"/>
+      <c r="J43" s="107"/>
       <c r="K43" s="51"/>
       <c r="L43" s="13"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
-      <c r="D44" s="83" t="s">
+      <c r="D44" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="E44" s="84"/>
+      <c r="E44" s="99"/>
       <c r="F44" s="59">
         <v>4000</v>
       </c>
       <c r="G44" s="7"/>
-      <c r="H44" s="83" t="s">
+      <c r="H44" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="I44" s="84"/>
+      <c r="I44" s="99"/>
       <c r="J44" s="59"/>
       <c r="K44" s="50"/>
       <c r="L44" s="7"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
-      <c r="D45" s="83" t="s">
+      <c r="D45" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="E45" s="84"/>
+      <c r="E45" s="99"/>
       <c r="F45" s="59">
         <v>2000</v>
       </c>
       <c r="G45" s="7"/>
-      <c r="H45" s="83" t="s">
+      <c r="H45" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="I45" s="84"/>
+      <c r="I45" s="99"/>
       <c r="J45" s="59">
         <v>1500</v>
       </c>
@@ -1907,109 +1929,109 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
-      <c r="D46" s="83" t="s">
+      <c r="D46" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="E46" s="84"/>
+      <c r="E46" s="99"/>
       <c r="F46" s="59">
         <v>500</v>
       </c>
       <c r="G46" s="7"/>
-      <c r="H46" s="83" t="s">
+      <c r="H46" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="I46" s="84"/>
+      <c r="I46" s="99"/>
       <c r="J46" s="59"/>
       <c r="K46" s="50"/>
       <c r="L46" s="7"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B47" s="6"/>
-      <c r="D47" s="83" t="s">
+      <c r="D47" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="84"/>
+      <c r="E47" s="99"/>
       <c r="F47" s="59">
         <v>600</v>
       </c>
       <c r="G47" s="7"/>
-      <c r="H47" s="83" t="s">
+      <c r="H47" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="I47" s="84"/>
+      <c r="I47" s="99"/>
       <c r="J47" s="59"/>
       <c r="K47" s="50"/>
       <c r="L47" s="7"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B48" s="6"/>
-      <c r="D48" s="83" t="s">
+      <c r="D48" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="84"/>
+      <c r="E48" s="99"/>
       <c r="F48" s="69">
         <v>5200</v>
       </c>
       <c r="G48" s="7"/>
-      <c r="H48" s="83" t="s">
+      <c r="H48" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="I48" s="84"/>
+      <c r="I48" s="99"/>
       <c r="J48" s="69"/>
       <c r="K48" s="50"/>
       <c r="L48" s="7"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B49" s="6"/>
-      <c r="D49" s="83"/>
-      <c r="E49" s="84"/>
+      <c r="D49" s="98"/>
+      <c r="E49" s="99"/>
       <c r="F49" s="69"/>
       <c r="G49" s="7"/>
-      <c r="H49" s="83"/>
-      <c r="I49" s="84"/>
+      <c r="H49" s="98"/>
+      <c r="I49" s="99"/>
       <c r="J49" s="69"/>
       <c r="K49" s="50"/>
       <c r="L49" s="7"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B50" s="6"/>
-      <c r="D50" s="83"/>
-      <c r="E50" s="84"/>
+      <c r="D50" s="98"/>
+      <c r="E50" s="99"/>
       <c r="F50" s="69"/>
       <c r="G50" s="7"/>
-      <c r="H50" s="83"/>
-      <c r="I50" s="84"/>
+      <c r="H50" s="98"/>
+      <c r="I50" s="99"/>
       <c r="J50" s="69"/>
       <c r="K50" s="50"/>
       <c r="L50" s="7"/>
     </row>
     <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="6"/>
-      <c r="D51" s="83"/>
-      <c r="E51" s="84"/>
+      <c r="D51" s="98"/>
+      <c r="E51" s="99"/>
       <c r="F51" s="69"/>
       <c r="G51" s="7"/>
-      <c r="H51" s="83"/>
-      <c r="I51" s="84"/>
+      <c r="H51" s="98"/>
+      <c r="I51" s="99"/>
       <c r="J51" s="69"/>
       <c r="K51" s="50"/>
       <c r="L51" s="7"/>
     </row>
     <row r="52" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="6"/>
-      <c r="D52" s="85" t="s">
+      <c r="D52" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="86"/>
+      <c r="E52" s="104"/>
       <c r="F52" s="38">
         <f>+SUM(F44:F51)</f>
         <v>12300</v>
       </c>
       <c r="G52" s="7"/>
-      <c r="H52" s="85" t="s">
+      <c r="H52" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="I52" s="86"/>
+      <c r="I52" s="104"/>
       <c r="J52" s="38">
         <f>+SUM(J44:J51)</f>
         <v>1500</v>
@@ -2040,19 +2062,19 @@
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
-      <c r="D56" s="87" t="s">
+      <c r="D56" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="E56" s="88"/>
-      <c r="F56" s="88"/>
+      <c r="E56" s="87"/>
+      <c r="F56" s="87"/>
       <c r="G56" s="5"/>
-      <c r="H56" s="92" t="s">
+      <c r="H56" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="I56" s="93"/>
-      <c r="J56" s="93"/>
-      <c r="K56" s="93"/>
-      <c r="L56" s="94"/>
+      <c r="I56" s="84"/>
+      <c r="J56" s="84"/>
+      <c r="K56" s="84"/>
+      <c r="L56" s="85"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
@@ -2065,11 +2087,11 @@
         <f>+L16</f>
         <v>5000</v>
       </c>
-      <c r="H57" s="87"/>
-      <c r="I57" s="88"/>
-      <c r="J57" s="88"/>
-      <c r="K57" s="88"/>
-      <c r="L57" s="89"/>
+      <c r="H57" s="86"/>
+      <c r="I57" s="87"/>
+      <c r="J57" s="87"/>
+      <c r="K57" s="87"/>
+      <c r="L57" s="88"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
@@ -2082,11 +2104,11 @@
         <f>+L41</f>
         <v>10800</v>
       </c>
-      <c r="H58" s="95"/>
-      <c r="I58" s="96"/>
-      <c r="J58" s="96"/>
-      <c r="K58" s="96"/>
-      <c r="L58" s="97"/>
+      <c r="H58" s="89"/>
+      <c r="I58" s="90"/>
+      <c r="J58" s="90"/>
+      <c r="K58" s="90"/>
+      <c r="L58" s="91"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
@@ -2099,11 +2121,11 @@
         <f>+SUM(F57:F58)</f>
         <v>15800</v>
       </c>
-      <c r="H59" s="98"/>
-      <c r="I59" s="99"/>
-      <c r="J59" s="99"/>
-      <c r="K59" s="99"/>
-      <c r="L59" s="100"/>
+      <c r="H59" s="92"/>
+      <c r="I59" s="93"/>
+      <c r="J59" s="93"/>
+      <c r="K59" s="93"/>
+      <c r="L59" s="94"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
@@ -2111,11 +2133,11 @@
       <c r="C60" s="5"/>
       <c r="D60" s="6"/>
       <c r="F60" s="30"/>
-      <c r="H60" s="98"/>
-      <c r="I60" s="99"/>
-      <c r="J60" s="99"/>
-      <c r="K60" s="99"/>
-      <c r="L60" s="100"/>
+      <c r="H60" s="92"/>
+      <c r="I60" s="93"/>
+      <c r="J60" s="93"/>
+      <c r="K60" s="93"/>
+      <c r="L60" s="94"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
@@ -2129,11 +2151,11 @@
         <f>+L19</f>
         <v>3515.4</v>
       </c>
-      <c r="H61" s="98"/>
-      <c r="I61" s="99"/>
-      <c r="J61" s="99"/>
-      <c r="K61" s="99"/>
-      <c r="L61" s="100"/>
+      <c r="H61" s="92"/>
+      <c r="I61" s="93"/>
+      <c r="J61" s="93"/>
+      <c r="K61" s="93"/>
+      <c r="L61" s="94"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
@@ -2148,11 +2170,11 @@
         <v>4200</v>
       </c>
       <c r="G62" s="32"/>
-      <c r="H62" s="98"/>
-      <c r="I62" s="99"/>
-      <c r="J62" s="99"/>
-      <c r="K62" s="99"/>
-      <c r="L62" s="100"/>
+      <c r="H62" s="92"/>
+      <c r="I62" s="93"/>
+      <c r="J62" s="93"/>
+      <c r="K62" s="93"/>
+      <c r="L62" s="94"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
@@ -2167,11 +2189,11 @@
         <v>7715.4</v>
       </c>
       <c r="G63" s="32"/>
-      <c r="H63" s="98"/>
-      <c r="I63" s="99"/>
-      <c r="J63" s="99"/>
-      <c r="K63" s="99"/>
-      <c r="L63" s="100"/>
+      <c r="H63" s="92"/>
+      <c r="I63" s="93"/>
+      <c r="J63" s="93"/>
+      <c r="K63" s="93"/>
+      <c r="L63" s="94"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
@@ -2180,11 +2202,11 @@
       <c r="E64" s="32"/>
       <c r="F64" s="26"/>
       <c r="G64" s="32"/>
-      <c r="H64" s="98"/>
-      <c r="I64" s="99"/>
-      <c r="J64" s="99"/>
-      <c r="K64" s="99"/>
-      <c r="L64" s="100"/>
+      <c r="H64" s="92"/>
+      <c r="I64" s="93"/>
+      <c r="J64" s="93"/>
+      <c r="K64" s="93"/>
+      <c r="L64" s="94"/>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B65" s="5"/>
@@ -2198,11 +2220,11 @@
         <v>-8084.6</v>
       </c>
       <c r="G65" s="5"/>
-      <c r="H65" s="98"/>
-      <c r="I65" s="99"/>
-      <c r="J65" s="99"/>
-      <c r="K65" s="99"/>
-      <c r="L65" s="100"/>
+      <c r="H65" s="92"/>
+      <c r="I65" s="93"/>
+      <c r="J65" s="93"/>
+      <c r="K65" s="93"/>
+      <c r="L65" s="94"/>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B66" s="5"/>
@@ -2211,11 +2233,11 @@
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
-      <c r="H66" s="98"/>
-      <c r="I66" s="99"/>
-      <c r="J66" s="99"/>
-      <c r="K66" s="99"/>
-      <c r="L66" s="100"/>
+      <c r="H66" s="92"/>
+      <c r="I66" s="93"/>
+      <c r="J66" s="93"/>
+      <c r="K66" s="93"/>
+      <c r="L66" s="94"/>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B67" s="5"/>
@@ -2229,11 +2251,11 @@
       </c>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
-      <c r="H67" s="98"/>
-      <c r="I67" s="99"/>
-      <c r="J67" s="99"/>
-      <c r="K67" s="99"/>
-      <c r="L67" s="100"/>
+      <c r="H67" s="92"/>
+      <c r="I67" s="93"/>
+      <c r="J67" s="93"/>
+      <c r="K67" s="93"/>
+      <c r="L67" s="94"/>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B68" s="5"/>
@@ -2247,11 +2269,11 @@
       </c>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
-      <c r="H68" s="101"/>
-      <c r="I68" s="102"/>
-      <c r="J68" s="102"/>
-      <c r="K68" s="102"/>
-      <c r="L68" s="103"/>
+      <c r="H68" s="95"/>
+      <c r="I68" s="96"/>
+      <c r="J68" s="96"/>
+      <c r="K68" s="96"/>
+      <c r="L68" s="97"/>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B69" s="5"/>
@@ -2305,44 +2327,33 @@
       <c r="F74" s="5"/>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D77" s="82" t="s">
+      <c r="D77" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="E77" s="82"/>
-      <c r="F77" s="82"/>
-      <c r="I77" s="82" t="s">
+      <c r="E77" s="102"/>
+      <c r="F77" s="102"/>
+      <c r="I77" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="J77" s="82"/>
-      <c r="K77" s="82"/>
-      <c r="L77" s="82"/>
+      <c r="J77" s="102"/>
+      <c r="K77" s="102"/>
+      <c r="L77" s="102"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="C9:L9"/>
-    <mergeCell ref="C7:L7"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H56:L57"/>
-    <mergeCell ref="H58:L68"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
+  <mergeCells count="53">
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
     <mergeCell ref="I77:L77"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="D56:F56"/>
@@ -2359,16 +2370,30 @@
     <mergeCell ref="H36:I36"/>
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="H37:I37"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="D77:F77"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H56:L57"/>
+    <mergeCell ref="H58:L68"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="C7:L7"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
   </mergeCells>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.74803149606299213" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
